--- a/data/trans_orig/P14C17-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P14C17-Edad-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{DE30C5F7-F8E7-406C-9063-DE80EEFA4BD1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{BE5A91FD-1D4E-41B2-A554-A307C0D05A5F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{497C80AF-A339-40D8-87CA-DBB1FAD3A42A}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{4D81DD23-412E-4495-B6D9-EE50018A04AD}"/>
   </bookViews>
   <sheets>
     <sheet name="2015" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="307" uniqueCount="158">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="307" uniqueCount="159">
   <si>
     <t>Población según el tiempo de diagnóstico del anemia en 2015 (Tasa respuesta: 1,45%)</t>
   </si>
@@ -152,19 +152,19 @@
     <t>63,21%</t>
   </si>
   <si>
-    <t>27,43%</t>
-  </si>
-  <si>
-    <t>90,61%</t>
+    <t>26,96%</t>
+  </si>
+  <si>
+    <t>90,57%</t>
   </si>
   <si>
     <t>66,38%</t>
   </si>
   <si>
-    <t>33,23%</t>
-  </si>
-  <si>
-    <t>91,44%</t>
+    <t>32,93%</t>
+  </si>
+  <si>
+    <t>91,3%</t>
   </si>
   <si>
     <t>77,15%</t>
@@ -173,31 +173,31 @@
     <t>27,45%</t>
   </si>
   <si>
-    <t>8,65%</t>
-  </si>
-  <si>
-    <t>61,88%</t>
+    <t>8,6%</t>
+  </si>
+  <si>
+    <t>56,71%</t>
   </si>
   <si>
     <t>25,08%</t>
   </si>
   <si>
-    <t>7,8%</t>
-  </si>
-  <si>
-    <t>51,26%</t>
+    <t>7,83%</t>
+  </si>
+  <si>
+    <t>51,53%</t>
   </si>
   <si>
     <t>9,34%</t>
   </si>
   <si>
-    <t>38,18%</t>
+    <t>38,23%</t>
   </si>
   <si>
     <t>8,54%</t>
   </si>
   <si>
-    <t>43,06%</t>
+    <t>42,69%</t>
   </si>
   <si>
     <t>35/44</t>
@@ -206,49 +206,49 @@
     <t>55,06%</t>
   </si>
   <si>
-    <t>25,02%</t>
-  </si>
-  <si>
-    <t>84,57%</t>
+    <t>30,55%</t>
+  </si>
+  <si>
+    <t>78,38%</t>
   </si>
   <si>
     <t>60,18%</t>
   </si>
   <si>
-    <t>35,27%</t>
-  </si>
-  <si>
-    <t>86,67%</t>
+    <t>34,1%</t>
+  </si>
+  <si>
+    <t>82,22%</t>
   </si>
   <si>
     <t>15,87%</t>
   </si>
   <si>
-    <t>47,03%</t>
+    <t>40,74%</t>
   </si>
   <si>
     <t>14,07%</t>
   </si>
   <si>
-    <t>50,76%</t>
+    <t>40,54%</t>
   </si>
   <si>
     <t>29,07%</t>
   </si>
   <si>
-    <t>7,2%</t>
-  </si>
-  <si>
-    <t>59,11%</t>
+    <t>7,16%</t>
+  </si>
+  <si>
+    <t>58,29%</t>
   </si>
   <si>
     <t>25,76%</t>
   </si>
   <si>
-    <t>6,24%</t>
-  </si>
-  <si>
-    <t>51,34%</t>
+    <t>6,21%</t>
+  </si>
+  <si>
+    <t>54,72%</t>
   </si>
   <si>
     <t>45/54</t>
@@ -257,19 +257,19 @@
     <t>76,87%</t>
   </si>
   <si>
-    <t>50,48%</t>
-  </si>
-  <si>
-    <t>93,31%</t>
+    <t>44,88%</t>
+  </si>
+  <si>
+    <t>93,24%</t>
   </si>
   <si>
     <t>74,89%</t>
   </si>
   <si>
-    <t>52,48%</t>
-  </si>
-  <si>
-    <t>93,61%</t>
+    <t>47,14%</t>
+  </si>
+  <si>
+    <t>93,49%</t>
   </si>
   <si>
     <t>33,62%</t>
@@ -278,13 +278,13 @@
     <t>7,92%</t>
   </si>
   <si>
-    <t>39,53%</t>
+    <t>33,57%</t>
   </si>
   <si>
     <t>12,75%</t>
   </si>
   <si>
-    <t>33,53%</t>
+    <t>38,02%</t>
   </si>
   <si>
     <t>44,41%</t>
@@ -293,13 +293,13 @@
     <t>15,22%</t>
   </si>
   <si>
-    <t>45,98%</t>
+    <t>42,53%</t>
   </si>
   <si>
     <t>12,35%</t>
   </si>
   <si>
-    <t>38,57%</t>
+    <t>37,76%</t>
   </si>
   <si>
     <t>55/64</t>
@@ -362,151 +362,154 @@
     <t>48,47%</t>
   </si>
   <si>
-    <t>18,74%</t>
-  </si>
-  <si>
-    <t>79,86%</t>
+    <t>18,89%</t>
+  </si>
+  <si>
+    <t>79,87%</t>
   </si>
   <si>
     <t>83,68%</t>
   </si>
   <si>
-    <t>62,84%</t>
-  </si>
-  <si>
-    <t>95,59%</t>
+    <t>63,25%</t>
+  </si>
+  <si>
+    <t>96,12%</t>
   </si>
   <si>
     <t>74,93%</t>
   </si>
   <si>
-    <t>57,8%</t>
-  </si>
-  <si>
-    <t>87,17%</t>
+    <t>59,55%</t>
+  </si>
+  <si>
+    <t>87,33%</t>
   </si>
   <si>
     <t>30,81%</t>
   </si>
   <si>
-    <t>62,86%</t>
+    <t>8,57%</t>
+  </si>
+  <si>
+    <t>62,45%</t>
   </si>
   <si>
     <t>12,69%</t>
   </si>
   <si>
-    <t>3,72%</t>
-  </si>
-  <si>
-    <t>31,34%</t>
+    <t>3,76%</t>
+  </si>
+  <si>
+    <t>30,39%</t>
   </si>
   <si>
     <t>17,19%</t>
   </si>
   <si>
-    <t>6,66%</t>
-  </si>
-  <si>
-    <t>31,45%</t>
+    <t>6,14%</t>
+  </si>
+  <si>
+    <t>31,99%</t>
   </si>
   <si>
     <t>20,73%</t>
   </si>
   <si>
-    <t>60,86%</t>
+    <t>52,38%</t>
   </si>
   <si>
     <t>3,63%</t>
   </si>
   <si>
-    <t>18,9%</t>
+    <t>18,85%</t>
   </si>
   <si>
     <t>7,88%</t>
   </si>
   <si>
-    <t>2,42%</t>
-  </si>
-  <si>
-    <t>22,28%</t>
+    <t>2,4%</t>
+  </si>
+  <si>
+    <t>21,26%</t>
   </si>
   <si>
     <t>64,05%</t>
   </si>
   <si>
-    <t>41,4%</t>
-  </si>
-  <si>
-    <t>83,92%</t>
+    <t>41,62%</t>
+  </si>
+  <si>
+    <t>84,61%</t>
   </si>
   <si>
     <t>67,32%</t>
   </si>
   <si>
-    <t>56,8%</t>
-  </si>
-  <si>
-    <t>76,93%</t>
+    <t>56,24%</t>
+  </si>
+  <si>
+    <t>77,02%</t>
   </si>
   <si>
     <t>66,69%</t>
   </si>
   <si>
-    <t>57,14%</t>
-  </si>
-  <si>
-    <t>75,85%</t>
+    <t>55,97%</t>
+  </si>
+  <si>
+    <t>75,46%</t>
   </si>
   <si>
     <t>25,94%</t>
   </si>
   <si>
-    <t>10,0%</t>
-  </si>
-  <si>
-    <t>49,79%</t>
+    <t>9,99%</t>
+  </si>
+  <si>
+    <t>47,79%</t>
   </si>
   <si>
     <t>18,51%</t>
   </si>
   <si>
-    <t>11,27%</t>
-  </si>
-  <si>
-    <t>27,79%</t>
+    <t>11,36%</t>
+  </si>
+  <si>
+    <t>29,17%</t>
   </si>
   <si>
     <t>19,93%</t>
   </si>
   <si>
-    <t>12,79%</t>
-  </si>
-  <si>
-    <t>29,44%</t>
+    <t>12,36%</t>
+  </si>
+  <si>
+    <t>28,91%</t>
   </si>
   <si>
     <t>10,02%</t>
   </si>
   <si>
-    <t>32,37%</t>
+    <t>30,86%</t>
   </si>
   <si>
     <t>14,17%</t>
   </si>
   <si>
-    <t>8,1%</t>
-  </si>
-  <si>
-    <t>23,03%</t>
+    <t>7,33%</t>
+  </si>
+  <si>
+    <t>22,16%</t>
   </si>
   <si>
     <t>13,38%</t>
   </si>
   <si>
-    <t>7,47%</t>
-  </si>
-  <si>
-    <t>20,99%</t>
+    <t>7,56%</t>
+  </si>
+  <si>
+    <t>21,0%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -921,7 +924,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C20430B2-176A-432A-AEA2-D0A0391DF55D}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BA260DA8-FCF6-4417-8467-562F438B9DF1}">
   <dimension ref="A1:Q32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2129,10 +2132,10 @@
         <v>116</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>52</v>
+        <v>117</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="H25" s="7">
         <v>3</v>
@@ -2141,13 +2144,13 @@
         <v>3541</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="M25" s="7">
         <v>6</v>
@@ -2156,13 +2159,13 @@
         <v>6385</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -2177,13 +2180,13 @@
         <v>1913</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="F26" s="7" t="s">
         <v>12</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="H26" s="7">
         <v>1</v>
@@ -2192,13 +2195,13 @@
         <v>1014</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="K26" s="7" t="s">
         <v>12</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="M26" s="7">
         <v>3</v>
@@ -2207,13 +2210,13 @@
         <v>2927</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -2281,13 +2284,13 @@
         <v>12231</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="H28" s="7">
         <v>50</v>
@@ -2296,13 +2299,13 @@
         <v>54558</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="M28" s="7">
         <v>62</v>
@@ -2311,13 +2314,13 @@
         <v>66789</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -2332,13 +2335,13 @@
         <v>4953</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="H29" s="7">
         <v>14</v>
@@ -2347,13 +2350,13 @@
         <v>15003</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="M29" s="7">
         <v>19</v>
@@ -2362,13 +2365,13 @@
         <v>19956</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -2383,13 +2386,13 @@
         <v>1913</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="F30" s="7" t="s">
         <v>12</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="H30" s="7">
         <v>12</v>
@@ -2398,13 +2401,13 @@
         <v>11485</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="M30" s="7">
         <v>14</v>
@@ -2413,13 +2416,13 @@
         <v>13397</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -2475,7 +2478,7 @@
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P14C17-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P14C17-Edad-trans_orig.xlsx
@@ -8,12 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{BE5A91FD-1D4E-41B2-A554-A307C0D05A5F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{8595304D-EBB9-4C40-AEFA-2F9B19B109F2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{4D81DD23-412E-4495-B6D9-EE50018A04AD}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{3E73CE38-43B1-4518-9969-38E4D095FFC9}"/>
   </bookViews>
   <sheets>
-    <sheet name="2015" sheetId="2" r:id="rId1"/>
+    <sheet name="2016" sheetId="2" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,9 +36,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="307" uniqueCount="159">
-  <si>
-    <t>Población según el tiempo de diagnóstico del anemia en 2015 (Tasa respuesta: 1,45%)</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="307" uniqueCount="158">
+  <si>
+    <t>Población según el tiempo de diagnóstico del anemia en 2016 (Tasa respuesta: 1,45%)</t>
   </si>
   <si>
     <t>Hombre</t>
@@ -83,13 +83,13 @@
     <t>16,38%</t>
   </si>
   <si>
-    <t>66,56%</t>
+    <t>64,62%</t>
   </si>
   <si>
     <t>24,55%</t>
   </si>
   <si>
-    <t>63,02%</t>
+    <t>63,36%</t>
   </si>
   <si>
     <t>De 1 a 4 años</t>
@@ -101,16 +101,16 @@
     <t>33,71%</t>
   </si>
   <si>
-    <t>84,32%</t>
+    <t>83,81%</t>
   </si>
   <si>
     <t>38,6%</t>
   </si>
   <si>
-    <t>12,34%</t>
-  </si>
-  <si>
-    <t>76,68%</t>
+    <t>12,15%</t>
+  </si>
+  <si>
+    <t>76,79%</t>
   </si>
   <si>
     <t>Ultimos 12 meses</t>
@@ -128,16 +128,16 @@
     <t>15,49%</t>
   </si>
   <si>
-    <t>84,23%</t>
+    <t>84,15%</t>
   </si>
   <si>
     <t>36,85%</t>
   </si>
   <si>
-    <t>11,23%</t>
-  </si>
-  <si>
-    <t>75,09%</t>
+    <t>11,26%</t>
+  </si>
+  <si>
+    <t>74,99%</t>
   </si>
   <si>
     <t>100%</t>
@@ -152,19 +152,19 @@
     <t>63,21%</t>
   </si>
   <si>
-    <t>26,96%</t>
-  </si>
-  <si>
-    <t>90,57%</t>
+    <t>27,17%</t>
+  </si>
+  <si>
+    <t>90,16%</t>
   </si>
   <si>
     <t>66,38%</t>
   </si>
   <si>
-    <t>32,93%</t>
-  </si>
-  <si>
-    <t>91,3%</t>
+    <t>33,33%</t>
+  </si>
+  <si>
+    <t>91,48%</t>
   </si>
   <si>
     <t>77,15%</t>
@@ -173,31 +173,31 @@
     <t>27,45%</t>
   </si>
   <si>
-    <t>8,6%</t>
-  </si>
-  <si>
-    <t>56,71%</t>
+    <t>8,69%</t>
+  </si>
+  <si>
+    <t>63,59%</t>
   </si>
   <si>
     <t>25,08%</t>
   </si>
   <si>
-    <t>7,83%</t>
-  </si>
-  <si>
-    <t>51,53%</t>
+    <t>7,81%</t>
+  </si>
+  <si>
+    <t>58,44%</t>
   </si>
   <si>
     <t>9,34%</t>
   </si>
   <si>
-    <t>38,23%</t>
+    <t>37,53%</t>
   </si>
   <si>
     <t>8,54%</t>
   </si>
   <si>
-    <t>42,69%</t>
+    <t>41,51%</t>
   </si>
   <si>
     <t>35/44</t>
@@ -206,31 +206,31 @@
     <t>55,06%</t>
   </si>
   <si>
-    <t>30,55%</t>
-  </si>
-  <si>
-    <t>78,38%</t>
+    <t>24,52%</t>
+  </si>
+  <si>
+    <t>78,55%</t>
   </si>
   <si>
     <t>60,18%</t>
   </si>
   <si>
-    <t>34,1%</t>
-  </si>
-  <si>
-    <t>82,22%</t>
+    <t>35,9%</t>
+  </si>
+  <si>
+    <t>82,14%</t>
   </si>
   <si>
     <t>15,87%</t>
   </si>
   <si>
-    <t>40,74%</t>
+    <t>40,13%</t>
   </si>
   <si>
     <t>14,07%</t>
   </si>
   <si>
-    <t>40,54%</t>
+    <t>37,86%</t>
   </si>
   <si>
     <t>29,07%</t>
@@ -239,16 +239,16 @@
     <t>7,16%</t>
   </si>
   <si>
-    <t>58,29%</t>
+    <t>59,14%</t>
   </si>
   <si>
     <t>25,76%</t>
   </si>
   <si>
-    <t>6,21%</t>
-  </si>
-  <si>
-    <t>54,72%</t>
+    <t>6,24%</t>
+  </si>
+  <si>
+    <t>54,77%</t>
   </si>
   <si>
     <t>45/54</t>
@@ -257,19 +257,19 @@
     <t>76,87%</t>
   </si>
   <si>
-    <t>44,88%</t>
-  </si>
-  <si>
-    <t>93,24%</t>
+    <t>44,52%</t>
+  </si>
+  <si>
+    <t>93,19%</t>
   </si>
   <si>
     <t>74,89%</t>
   </si>
   <si>
-    <t>47,14%</t>
-  </si>
-  <si>
-    <t>93,49%</t>
+    <t>48,21%</t>
+  </si>
+  <si>
+    <t>93,54%</t>
   </si>
   <si>
     <t>33,62%</t>
@@ -278,13 +278,13 @@
     <t>7,92%</t>
   </si>
   <si>
-    <t>33,57%</t>
+    <t>41,24%</t>
   </si>
   <si>
     <t>12,75%</t>
   </si>
   <si>
-    <t>38,02%</t>
+    <t>39,38%</t>
   </si>
   <si>
     <t>44,41%</t>
@@ -293,15 +293,12 @@
     <t>15,22%</t>
   </si>
   <si>
-    <t>42,53%</t>
+    <t>43,0%</t>
   </si>
   <si>
     <t>12,35%</t>
   </si>
   <si>
-    <t>37,76%</t>
-  </si>
-  <si>
     <t>55/64</t>
   </si>
   <si>
@@ -311,49 +308,49 @@
     <t>58,72%</t>
   </si>
   <si>
-    <t>27,58%</t>
-  </si>
-  <si>
-    <t>89,83%</t>
+    <t>19,63%</t>
+  </si>
+  <si>
+    <t>86,37%</t>
   </si>
   <si>
     <t>65,46%</t>
   </si>
   <si>
-    <t>33,76%</t>
-  </si>
-  <si>
-    <t>91,85%</t>
+    <t>31,19%</t>
+  </si>
+  <si>
+    <t>84,51%</t>
   </si>
   <si>
     <t>32,43%</t>
   </si>
   <si>
-    <t>9,25%</t>
-  </si>
-  <si>
-    <t>65,22%</t>
+    <t>9,51%</t>
+  </si>
+  <si>
+    <t>71,04%</t>
   </si>
   <si>
     <t>27,13%</t>
   </si>
   <si>
-    <t>7,67%</t>
-  </si>
-  <si>
-    <t>62,51%</t>
+    <t>8,11%</t>
+  </si>
+  <si>
+    <t>63,25%</t>
   </si>
   <si>
     <t>8,85%</t>
   </si>
   <si>
-    <t>38,17%</t>
+    <t>37,99%</t>
   </si>
   <si>
     <t>7,41%</t>
   </si>
   <si>
-    <t>31,2%</t>
+    <t>30,91%</t>
   </si>
   <si>
     <t>65 y más</t>
@@ -362,37 +359,37 @@
     <t>48,47%</t>
   </si>
   <si>
-    <t>18,89%</t>
-  </si>
-  <si>
-    <t>79,87%</t>
+    <t>18,23%</t>
+  </si>
+  <si>
+    <t>79,66%</t>
   </si>
   <si>
     <t>83,68%</t>
   </si>
   <si>
-    <t>63,25%</t>
-  </si>
-  <si>
-    <t>96,12%</t>
+    <t>65,7%</t>
+  </si>
+  <si>
+    <t>95,66%</t>
   </si>
   <si>
     <t>74,93%</t>
   </si>
   <si>
-    <t>59,55%</t>
-  </si>
-  <si>
-    <t>87,33%</t>
+    <t>58,55%</t>
+  </si>
+  <si>
+    <t>88,2%</t>
   </si>
   <si>
     <t>30,81%</t>
   </si>
   <si>
-    <t>8,57%</t>
-  </si>
-  <si>
-    <t>62,45%</t>
+    <t>8,68%</t>
+  </si>
+  <si>
+    <t>63,29%</t>
   </si>
   <si>
     <t>12,69%</t>
@@ -401,115 +398,115 @@
     <t>3,76%</t>
   </si>
   <si>
-    <t>30,39%</t>
+    <t>32,35%</t>
   </si>
   <si>
     <t>17,19%</t>
   </si>
   <si>
-    <t>6,14%</t>
-  </si>
-  <si>
-    <t>31,99%</t>
+    <t>6,94%</t>
+  </si>
+  <si>
+    <t>33,3%</t>
   </si>
   <si>
     <t>20,73%</t>
   </si>
   <si>
-    <t>52,38%</t>
+    <t>53,33%</t>
   </si>
   <si>
     <t>3,63%</t>
   </si>
   <si>
-    <t>18,85%</t>
+    <t>18,48%</t>
   </si>
   <si>
     <t>7,88%</t>
   </si>
   <si>
-    <t>2,4%</t>
-  </si>
-  <si>
-    <t>21,26%</t>
+    <t>2,38%</t>
+  </si>
+  <si>
+    <t>19,78%</t>
   </si>
   <si>
     <t>64,05%</t>
   </si>
   <si>
-    <t>41,62%</t>
-  </si>
-  <si>
-    <t>84,61%</t>
+    <t>40,83%</t>
+  </si>
+  <si>
+    <t>84,22%</t>
   </si>
   <si>
     <t>67,32%</t>
   </si>
   <si>
-    <t>56,24%</t>
-  </si>
-  <si>
-    <t>77,02%</t>
+    <t>55,89%</t>
+  </si>
+  <si>
+    <t>76,4%</t>
   </si>
   <si>
     <t>66,69%</t>
   </si>
   <si>
-    <t>55,97%</t>
-  </si>
-  <si>
-    <t>75,46%</t>
+    <t>57,87%</t>
+  </si>
+  <si>
+    <t>76,19%</t>
   </si>
   <si>
     <t>25,94%</t>
   </si>
   <si>
-    <t>9,99%</t>
-  </si>
-  <si>
-    <t>47,79%</t>
+    <t>10,4%</t>
+  </si>
+  <si>
+    <t>48,72%</t>
   </si>
   <si>
     <t>18,51%</t>
   </si>
   <si>
-    <t>11,36%</t>
-  </si>
-  <si>
-    <t>29,17%</t>
+    <t>11,42%</t>
+  </si>
+  <si>
+    <t>28,33%</t>
   </si>
   <si>
     <t>19,93%</t>
   </si>
   <si>
-    <t>12,36%</t>
-  </si>
-  <si>
-    <t>28,91%</t>
+    <t>12,97%</t>
+  </si>
+  <si>
+    <t>29,74%</t>
   </si>
   <si>
     <t>10,02%</t>
   </si>
   <si>
-    <t>30,86%</t>
+    <t>30,27%</t>
   </si>
   <si>
     <t>14,17%</t>
   </si>
   <si>
-    <t>7,33%</t>
-  </si>
-  <si>
-    <t>22,16%</t>
+    <t>7,93%</t>
+  </si>
+  <si>
+    <t>23,26%</t>
   </si>
   <si>
     <t>13,38%</t>
   </si>
   <si>
-    <t>7,56%</t>
-  </si>
-  <si>
-    <t>21,0%</t>
+    <t>7,52%</t>
+  </si>
+  <si>
+    <t>20,23%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -924,7 +921,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BA260DA8-FCF6-4417-8467-562F438B9DF1}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9D283EAF-C59A-49EC-AC4A-E62B6404206F}">
   <dimension ref="A1:Q32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1804,7 +1801,7 @@
         <v>12</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>87</v>
+        <v>51</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -1860,7 +1857,7 @@
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B20" s="5" t="s">
         <v>10</v>
@@ -1875,7 +1872,7 @@
         <v>13</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G20" s="7" t="s">
         <v>34</v>
@@ -1887,13 +1884,13 @@
         <v>6422</v>
       </c>
       <c r="J20" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="K20" s="7" t="s">
         <v>90</v>
       </c>
-      <c r="K20" s="7" t="s">
+      <c r="L20" s="7" t="s">
         <v>91</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>92</v>
       </c>
       <c r="M20" s="7">
         <v>8</v>
@@ -1902,13 +1899,13 @@
         <v>8554</v>
       </c>
       <c r="O20" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="P20" s="7" t="s">
         <v>93</v>
       </c>
-      <c r="P20" s="7" t="s">
+      <c r="Q20" s="7" t="s">
         <v>94</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>95</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -1938,13 +1935,13 @@
         <v>3546</v>
       </c>
       <c r="J21" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="K21" s="7" t="s">
         <v>96</v>
       </c>
-      <c r="K21" s="7" t="s">
+      <c r="L21" s="7" t="s">
         <v>97</v>
-      </c>
-      <c r="L21" s="7" t="s">
-        <v>98</v>
       </c>
       <c r="M21" s="7">
         <v>3</v>
@@ -1953,13 +1950,13 @@
         <v>3546</v>
       </c>
       <c r="O21" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="P21" s="7" t="s">
         <v>99</v>
       </c>
-      <c r="P21" s="7" t="s">
+      <c r="Q21" s="7" t="s">
         <v>100</v>
-      </c>
-      <c r="Q21" s="7" t="s">
-        <v>101</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -1989,13 +1986,13 @@
         <v>968</v>
       </c>
       <c r="J22" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="K22" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="L22" s="7" t="s">
         <v>102</v>
-      </c>
-      <c r="K22" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="L22" s="7" t="s">
-        <v>103</v>
       </c>
       <c r="M22" s="7">
         <v>1</v>
@@ -2004,13 +2001,13 @@
         <v>968</v>
       </c>
       <c r="O22" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="P22" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q22" s="7" t="s">
         <v>104</v>
-      </c>
-      <c r="P22" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="Q22" s="7" t="s">
-        <v>105</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -2066,7 +2063,7 @@
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B24" s="5" t="s">
         <v>10</v>
@@ -2078,13 +2075,13 @@
         <v>4472</v>
       </c>
       <c r="E24" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="F24" s="7" t="s">
         <v>107</v>
       </c>
-      <c r="F24" s="7" t="s">
+      <c r="G24" s="7" t="s">
         <v>108</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>109</v>
       </c>
       <c r="H24" s="7">
         <v>20</v>
@@ -2093,13 +2090,13 @@
         <v>23355</v>
       </c>
       <c r="J24" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="K24" s="7" t="s">
         <v>110</v>
       </c>
-      <c r="K24" s="7" t="s">
+      <c r="L24" s="7" t="s">
         <v>111</v>
-      </c>
-      <c r="L24" s="7" t="s">
-        <v>112</v>
       </c>
       <c r="M24" s="7">
         <v>25</v>
@@ -2108,13 +2105,13 @@
         <v>27828</v>
       </c>
       <c r="O24" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="P24" s="7" t="s">
         <v>113</v>
       </c>
-      <c r="P24" s="7" t="s">
+      <c r="Q24" s="7" t="s">
         <v>114</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>115</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -2129,13 +2126,13 @@
         <v>2843</v>
       </c>
       <c r="E25" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="F25" s="7" t="s">
         <v>116</v>
       </c>
-      <c r="F25" s="7" t="s">
+      <c r="G25" s="7" t="s">
         <v>117</v>
-      </c>
-      <c r="G25" s="7" t="s">
-        <v>118</v>
       </c>
       <c r="H25" s="7">
         <v>3</v>
@@ -2144,13 +2141,13 @@
         <v>3541</v>
       </c>
       <c r="J25" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="K25" s="7" t="s">
         <v>119</v>
       </c>
-      <c r="K25" s="7" t="s">
+      <c r="L25" s="7" t="s">
         <v>120</v>
-      </c>
-      <c r="L25" s="7" t="s">
-        <v>121</v>
       </c>
       <c r="M25" s="7">
         <v>6</v>
@@ -2159,13 +2156,13 @@
         <v>6385</v>
       </c>
       <c r="O25" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="P25" s="7" t="s">
         <v>122</v>
       </c>
-      <c r="P25" s="7" t="s">
+      <c r="Q25" s="7" t="s">
         <v>123</v>
-      </c>
-      <c r="Q25" s="7" t="s">
-        <v>124</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -2180,13 +2177,13 @@
         <v>1913</v>
       </c>
       <c r="E26" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="F26" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="G26" s="7" t="s">
         <v>125</v>
-      </c>
-      <c r="F26" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="G26" s="7" t="s">
-        <v>126</v>
       </c>
       <c r="H26" s="7">
         <v>1</v>
@@ -2195,13 +2192,13 @@
         <v>1014</v>
       </c>
       <c r="J26" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="K26" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="L26" s="7" t="s">
         <v>127</v>
-      </c>
-      <c r="K26" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="L26" s="7" t="s">
-        <v>128</v>
       </c>
       <c r="M26" s="7">
         <v>3</v>
@@ -2210,13 +2207,13 @@
         <v>2927</v>
       </c>
       <c r="O26" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="P26" s="7" t="s">
         <v>129</v>
       </c>
-      <c r="P26" s="7" t="s">
+      <c r="Q26" s="7" t="s">
         <v>130</v>
-      </c>
-      <c r="Q26" s="7" t="s">
-        <v>131</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -2284,13 +2281,13 @@
         <v>12231</v>
       </c>
       <c r="E28" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="F28" s="7" t="s">
         <v>132</v>
       </c>
-      <c r="F28" s="7" t="s">
+      <c r="G28" s="7" t="s">
         <v>133</v>
-      </c>
-      <c r="G28" s="7" t="s">
-        <v>134</v>
       </c>
       <c r="H28" s="7">
         <v>50</v>
@@ -2299,13 +2296,13 @@
         <v>54558</v>
       </c>
       <c r="J28" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="K28" s="7" t="s">
         <v>135</v>
       </c>
-      <c r="K28" s="7" t="s">
+      <c r="L28" s="7" t="s">
         <v>136</v>
-      </c>
-      <c r="L28" s="7" t="s">
-        <v>137</v>
       </c>
       <c r="M28" s="7">
         <v>62</v>
@@ -2314,13 +2311,13 @@
         <v>66789</v>
       </c>
       <c r="O28" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="P28" s="7" t="s">
         <v>138</v>
       </c>
-      <c r="P28" s="7" t="s">
+      <c r="Q28" s="7" t="s">
         <v>139</v>
-      </c>
-      <c r="Q28" s="7" t="s">
-        <v>140</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -2335,13 +2332,13 @@
         <v>4953</v>
       </c>
       <c r="E29" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="F29" s="7" t="s">
         <v>141</v>
       </c>
-      <c r="F29" s="7" t="s">
+      <c r="G29" s="7" t="s">
         <v>142</v>
-      </c>
-      <c r="G29" s="7" t="s">
-        <v>143</v>
       </c>
       <c r="H29" s="7">
         <v>14</v>
@@ -2350,13 +2347,13 @@
         <v>15003</v>
       </c>
       <c r="J29" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="K29" s="7" t="s">
         <v>144</v>
       </c>
-      <c r="K29" s="7" t="s">
+      <c r="L29" s="7" t="s">
         <v>145</v>
-      </c>
-      <c r="L29" s="7" t="s">
-        <v>146</v>
       </c>
       <c r="M29" s="7">
         <v>19</v>
@@ -2365,13 +2362,13 @@
         <v>19956</v>
       </c>
       <c r="O29" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="P29" s="7" t="s">
         <v>147</v>
       </c>
-      <c r="P29" s="7" t="s">
+      <c r="Q29" s="7" t="s">
         <v>148</v>
-      </c>
-      <c r="Q29" s="7" t="s">
-        <v>149</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -2386,13 +2383,13 @@
         <v>1913</v>
       </c>
       <c r="E30" s="7" t="s">
+        <v>149</v>
+      </c>
+      <c r="F30" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="G30" s="7" t="s">
         <v>150</v>
-      </c>
-      <c r="F30" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="G30" s="7" t="s">
-        <v>151</v>
       </c>
       <c r="H30" s="7">
         <v>12</v>
@@ -2401,13 +2398,13 @@
         <v>11485</v>
       </c>
       <c r="J30" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="K30" s="7" t="s">
         <v>152</v>
       </c>
-      <c r="K30" s="7" t="s">
+      <c r="L30" s="7" t="s">
         <v>153</v>
-      </c>
-      <c r="L30" s="7" t="s">
-        <v>154</v>
       </c>
       <c r="M30" s="7">
         <v>14</v>
@@ -2416,13 +2413,13 @@
         <v>13397</v>
       </c>
       <c r="O30" s="7" t="s">
+        <v>154</v>
+      </c>
+      <c r="P30" s="7" t="s">
         <v>155</v>
       </c>
-      <c r="P30" s="7" t="s">
+      <c r="Q30" s="7" t="s">
         <v>156</v>
-      </c>
-      <c r="Q30" s="7" t="s">
-        <v>157</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -2478,7 +2475,7 @@
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
   </sheetData>
